--- a/biology/Médecine/Teymur_Musaev/Teymur_Musaev.xlsx
+++ b/biology/Médecine/Teymur_Musaev/Teymur_Musaev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Teymur Musayev (en azéri: Teymur Yusif oğlu Musayev ; né le 16 septembre 1970 à Bakou) est un urologue, Ph.D.en médecine, ministre de la Santé de la République d'Azerbaïdjan.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Teymur Musaev est né le 16 septembre 1970. En 1987, il est diplômé de l'école secondaire de la ville en 1899.
-En 1987-1994, il étudie à l'Université de médecine d'Azerbaïdjan, puis en 2003-2004 à l'Université de Strasbourg et en 2013-2015 - à l'Université de Riga Stradisa[1].
+En 1987-1994, il étudie à l'Université de médecine d'Azerbaïdjan, puis en 2003-2004 à l'Université de Strasbourg et en 2013-2015 - à l'Université de Riga Stradisa.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 2007 à 2015, il est directeur de la clinique Nasreddin Tusi. En 2015-2018, il travaille comme directeur d'un autre hôpital privé, en 2016-2019, il est directeur médical de l'hôtel de Gabala et, en 2019-2020, consultant principal du centre médical[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 2007 à 2015, il est directeur de la clinique Nasreddin Tusi. En 2015-2018, il travaille comme directeur d'un autre hôpital privé, en 2016-2019, il est directeur médical de l'hôtel de Gabala et, en 2019-2020, consultant principal du centre médical.
 À partir de 2020, Teymur Musaev travaille comme chef du département organisationnel du Ministère de la Santé d'Azerbaïdjan.
-Le 23 avril 2021, le président de la République d'Azerbaïdjan signe un décret portant nomination de Teymur Musaev au poste de premier vice-ministre de la Santé, et un autre arrêté - ministre de la Santé par intérim [3].
+Le 23 avril 2021, le président de la République d'Azerbaïdjan signe un décret portant nomination de Teymur Musaev au poste de premier vice-ministre de la Santé, et un autre arrêté - ministre de la Santé par intérim .
 </t>
         </is>
       </c>
